--- a/pred_ohlcv/54_21/2019-11-12 SALT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-12 SALT ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>16690.14225639001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>15130.14225639001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>15130.14225639001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>17682.14225639001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>17682.14225639001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>29288.89458370002</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>28888.89458370002</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>28888.89458370002</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>30778.57198370002</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>30218.51778370002</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>30218.51778370002</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>13682.73648370002</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>13450.76778370002</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>10719.99698370002</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>29435.55238370002</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>18333.75568370002</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-119576.51079688</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-119537.13529688</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-119557.13529688</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-119537.85829688</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-119497.85829688</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-119507.85829688</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-112379.55289688</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-110779.55289688</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-110773.55289688</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-87573.55289687996</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-107685.55289688</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-106444.33159688</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-99196.21019687995</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-99196.21019687995</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-99196.21019687995</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-80156.35959687996</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-12 SALT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-12 SALT ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>16690.14225639001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>15130.14225639001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>15130.14225639001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>17682.14225639001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>17682.14225639001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>29076.58411122002</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>29076.58411122002</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>13667.19228370002</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>19319.19228370002</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>29288.89458370002</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>29288.89458370002</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>28888.89458370002</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>28888.89458370002</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>30778.57198370002</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>30218.51778370002</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>30218.51778370002</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>29435.55238370002</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-119576.51079688</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-119537.13529688</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-119557.13529688</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-119537.85829688</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-119497.85829688</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-119507.85829688</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-119507.85829688</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-112385.54569688</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-112385.54569688</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-110773.55289688</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-107685.55289688</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-106444.33159688</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-99196.21019687995</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-99196.21019687995</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-99196.21019687995</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-78236.89049687996</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-78735.78609687997</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-79902.02589687996</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-80161.35959687996</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-80156.35959687996</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-70156.35959687996</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-69056.35959687996</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-69456.35959687996</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-69056.35959687996</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-68256.35959687996</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-64456.35959687996</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-69156.35959687996</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-67856.35959687996</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-67851.35959687996</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-69133.10259687997</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-71633.10259687997</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
